--- a/tests/e2e/xlsx/output.xlsx
+++ b/tests/e2e/xlsx/output.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
